--- a/docs/Test/Fehler 2.xlsx
+++ b/docs/Test/Fehler 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\___DRUCK MAIL___\__In Bearbeitung\INDUSTRIEHOF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Projekte\ExcelToCsv\docs\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B70FF4-216C-430A-B75E-CABD565E01FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5853719-6640-4395-8EDF-D7D835E76231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="2535" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konverter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -83,27 +83,6 @@
   <si>
     <t>[LA6100,0]
 [ANZSTD]</t>
-  </si>
-  <si>
-    <t>Blümel, Frank</t>
-  </si>
-  <si>
-    <t>Behre, Linda</t>
-  </si>
-  <si>
-    <t>Becker, Michael</t>
-  </si>
-  <si>
-    <t>Fraatz, Nadine</t>
-  </si>
-  <si>
-    <t>Alitovic, Besim</t>
-  </si>
-  <si>
-    <t>Gholami, Ali</t>
-  </si>
-  <si>
-    <t>Kuklinski, Malgorzata</t>
   </si>
   <si>
     <t>Neu</t>
@@ -1136,7 +1115,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B11" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,11 +1211,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>120</v>
       </c>
@@ -1254,9 +1231,7 @@
       <c r="A6" s="23">
         <v>1160</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>148</v>
       </c>
@@ -1272,9 +1247,7 @@
       <c r="A7" s="23">
         <v>1200</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>130</v>
       </c>
@@ -1290,9 +1263,7 @@
       <c r="A8" s="23">
         <v>1360</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>120</v>
       </c>
@@ -1308,9 +1279,7 @@
       <c r="A9" s="23">
         <v>1400</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>150</v>
       </c>
@@ -1324,11 +1293,9 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>90</v>
       </c>
@@ -1346,9 +1313,7 @@
       <c r="A11" s="23">
         <v>1850</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>20</v>
       </c>
